--- a/ECHANTILLON.xlsx
+++ b/ECHANTILLON.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01cb7a83614ce55a/PROJET EN COURS/Dashbord_INS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LK\Desktop\GItHubUpload\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{FB3E98F2-988B-4C84-89D2-895C2AA167BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2845351C-9403-45F0-9161-C60C04B83C52}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F129AEDD-1DB6-4ABA-8037-C8D63A6268B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{205A0A7F-84F8-4327-ABD8-F6B2F6EFBE4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{205A0A7F-84F8-4327-ABD8-F6B2F6EFBE4E}"/>
   </bookViews>
   <sheets>
     <sheet name="ECOLE" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="361">
   <si>
     <t>SCode_Ecole</t>
   </si>
@@ -987,6 +987,138 @@
   </si>
   <si>
     <t>CTR</t>
+  </si>
+  <si>
+    <t>Adamaoua</t>
+  </si>
+  <si>
+    <t>Centre</t>
+  </si>
+  <si>
+    <t>Est</t>
+  </si>
+  <si>
+    <t>Extrême-Nord</t>
+  </si>
+  <si>
+    <t>Littoral</t>
+  </si>
+  <si>
+    <t>Nord</t>
+  </si>
+  <si>
+    <t>Nord-Ouest</t>
+  </si>
+  <si>
+    <t>Ouest</t>
+  </si>
+  <si>
+    <t>Sud-Ouest</t>
+  </si>
+  <si>
+    <t>Sud</t>
+  </si>
+  <si>
+    <t>S_1100</t>
+  </si>
+  <si>
+    <t>S_1200</t>
+  </si>
+  <si>
+    <t>S_1300</t>
+  </si>
+  <si>
+    <t>S_1400</t>
+  </si>
+  <si>
+    <t>S_1500</t>
+  </si>
+  <si>
+    <t>S_1600</t>
+  </si>
+  <si>
+    <t>S_1700</t>
+  </si>
+  <si>
+    <t>S_1800</t>
+  </si>
+  <si>
+    <t>S_1900</t>
+  </si>
+  <si>
+    <t>S_2000</t>
+  </si>
+  <si>
+    <t>E_1111</t>
+  </si>
+  <si>
+    <t>E_1112</t>
+  </si>
+  <si>
+    <t>E_1113</t>
+  </si>
+  <si>
+    <t>E_1114</t>
+  </si>
+  <si>
+    <t>E_1211</t>
+  </si>
+  <si>
+    <t>E_1311</t>
+  </si>
+  <si>
+    <t>E_1312</t>
+  </si>
+  <si>
+    <t>E_1411</t>
+  </si>
+  <si>
+    <t>E_1412</t>
+  </si>
+  <si>
+    <t>E_1413</t>
+  </si>
+  <si>
+    <t>E_1414</t>
+  </si>
+  <si>
+    <t>E_1415</t>
+  </si>
+  <si>
+    <t>E_1416</t>
+  </si>
+  <si>
+    <t>E_1417</t>
+  </si>
+  <si>
+    <t>E_1418</t>
+  </si>
+  <si>
+    <t>E_1511</t>
+  </si>
+  <si>
+    <t>E_1611</t>
+  </si>
+  <si>
+    <t>E_1612</t>
+  </si>
+  <si>
+    <t>E_1613</t>
+  </si>
+  <si>
+    <t>E_1711</t>
+  </si>
+  <si>
+    <t>E_1811</t>
+  </si>
+  <si>
+    <t>E_1812</t>
+  </si>
+  <si>
+    <t>E_1911</t>
+  </si>
+  <si>
+    <t>E_2011</t>
   </si>
 </sst>
 </file>
@@ -1406,22 +1538,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F89422-2DDE-4A6C-9B46-BDA298CFFB8F}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.7109375"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375"/>
+    <col min="6" max="7" width="8.7109375"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1432,2109 +1566,2307 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2">
         <v>1100</v>
       </c>
-      <c r="D2">
-        <v>1111</v>
-      </c>
       <c r="E2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3">
         <v>1100</v>
       </c>
-      <c r="D3">
-        <v>1111</v>
-      </c>
       <c r="E3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4">
         <v>1100</v>
       </c>
-      <c r="D4">
-        <v>1112</v>
-      </c>
       <c r="E4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5">
         <v>1100</v>
       </c>
-      <c r="D5">
-        <v>1112</v>
-      </c>
       <c r="E5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6">
         <v>1100</v>
       </c>
-      <c r="D6">
-        <v>1113</v>
-      </c>
       <c r="E6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7">
         <v>1100</v>
       </c>
-      <c r="D7">
-        <v>1113</v>
-      </c>
       <c r="E7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8">
         <v>1100</v>
       </c>
-      <c r="D8">
-        <v>1111</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9">
         <v>1100</v>
       </c>
-      <c r="D9">
-        <v>1114</v>
-      </c>
       <c r="E9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>46</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10">
         <v>1100</v>
       </c>
-      <c r="D10">
-        <v>1114</v>
-      </c>
       <c r="E10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>46</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11">
         <v>1100</v>
       </c>
-      <c r="D11">
-        <v>1114</v>
-      </c>
       <c r="E11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>46</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12">
         <v>1200</v>
       </c>
-      <c r="D12">
-        <v>1211</v>
-      </c>
       <c r="E12" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I12" t="s">
         <v>65</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>66</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13">
         <v>1200</v>
       </c>
-      <c r="D13">
-        <v>1211</v>
-      </c>
       <c r="E13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I13" t="s">
         <v>65</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>66</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14">
         <v>1200</v>
       </c>
-      <c r="D14">
-        <v>1211</v>
-      </c>
       <c r="E14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I14" t="s">
         <v>65</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>66</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15">
         <v>1200</v>
       </c>
-      <c r="D15">
-        <v>1211</v>
-      </c>
       <c r="E15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" t="s">
         <v>72</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I15" t="s">
         <v>65</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>66</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16">
         <v>1300</v>
       </c>
-      <c r="D16">
-        <v>1311</v>
-      </c>
       <c r="E16" t="s">
+        <v>342</v>
+      </c>
+      <c r="F16" t="s">
         <v>78</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I16" t="s">
         <v>81</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>82</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17">
         <v>1300</v>
       </c>
-      <c r="D17">
-        <v>1311</v>
-      </c>
       <c r="E17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" t="s">
         <v>78</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I17" t="s">
         <v>81</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>82</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18">
         <v>1300</v>
       </c>
-      <c r="D18">
-        <v>1311</v>
-      </c>
       <c r="E18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" t="s">
         <v>78</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I18" t="s">
         <v>81</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>82</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
       <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19">
         <v>1300</v>
       </c>
-      <c r="D19">
-        <v>1312</v>
-      </c>
       <c r="E19" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" t="s">
         <v>90</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I19" t="s">
         <v>81</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>82</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>93</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20">
         <v>1300</v>
       </c>
-      <c r="D20">
-        <v>1312</v>
-      </c>
       <c r="E20" t="s">
+        <v>343</v>
+      </c>
+      <c r="F20" t="s">
         <v>90</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" t="s">
         <v>81</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>82</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
       <c r="B21" t="s">
         <v>95</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21">
         <v>1300</v>
       </c>
-      <c r="D21">
-        <v>1312</v>
-      </c>
       <c r="E21" t="s">
+        <v>343</v>
+      </c>
+      <c r="F21" t="s">
         <v>90</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I21" t="s">
         <v>81</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>82</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>96</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22">
         <v>1400</v>
       </c>
-      <c r="D22">
-        <v>1411</v>
-      </c>
       <c r="E22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F22" t="s">
         <v>98</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I22" t="s">
         <v>101</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>102</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>104</v>
       </c>
       <c r="B23" t="s">
         <v>105</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23">
         <v>1400</v>
       </c>
-      <c r="D23">
-        <v>1411</v>
-      </c>
       <c r="E23" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" t="s">
         <v>106</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I23" t="s">
         <v>101</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>108</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D24">
         <v>1400</v>
       </c>
-      <c r="D24">
-        <v>1411</v>
-      </c>
       <c r="E24" t="s">
+        <v>344</v>
+      </c>
+      <c r="F24" t="s">
         <v>112</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I24" t="s">
         <v>101</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>108</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>114</v>
       </c>
       <c r="B25" t="s">
         <v>115</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D25">
         <v>1400</v>
       </c>
-      <c r="D25">
-        <v>1412</v>
-      </c>
       <c r="E25" t="s">
+        <v>345</v>
+      </c>
+      <c r="F25" t="s">
         <v>116</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I25" t="s">
         <v>101</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>108</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>118</v>
       </c>
       <c r="B26" t="s">
         <v>119</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26">
         <v>1400</v>
       </c>
-      <c r="D26">
-        <v>1412</v>
-      </c>
       <c r="E26" t="s">
+        <v>345</v>
+      </c>
+      <c r="F26" t="s">
         <v>120</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I26" t="s">
         <v>101</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>122</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>124</v>
       </c>
       <c r="B27" t="s">
         <v>125</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27">
         <v>1400</v>
       </c>
-      <c r="D27">
-        <v>1413</v>
-      </c>
       <c r="E27" t="s">
+        <v>346</v>
+      </c>
+      <c r="F27" t="s">
         <v>126</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>127</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I27" t="s">
         <v>101</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>122</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>128</v>
       </c>
       <c r="B28" t="s">
         <v>129</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28">
         <v>1400</v>
       </c>
-      <c r="D28">
-        <v>1413</v>
-      </c>
       <c r="E28" t="s">
+        <v>346</v>
+      </c>
+      <c r="F28" t="s">
         <v>130</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>131</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I28" t="s">
         <v>101</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>122</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>132</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29">
         <v>1400</v>
       </c>
-      <c r="D29">
-        <v>1414</v>
-      </c>
       <c r="E29" t="s">
+        <v>347</v>
+      </c>
+      <c r="F29" t="s">
         <v>134</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>135</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I29" t="s">
         <v>101</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>122</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>136</v>
       </c>
       <c r="B30" t="s">
         <v>137</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>330</v>
+      </c>
+      <c r="D30">
         <v>1400</v>
       </c>
-      <c r="D30">
-        <v>1414</v>
-      </c>
       <c r="E30" t="s">
+        <v>347</v>
+      </c>
+      <c r="F30" t="s">
         <v>138</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I30" t="s">
         <v>101</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>122</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>140</v>
       </c>
       <c r="B31" t="s">
         <v>141</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31">
         <v>1400</v>
       </c>
-      <c r="D31">
-        <v>1415</v>
-      </c>
       <c r="E31" t="s">
+        <v>348</v>
+      </c>
+      <c r="F31" t="s">
         <v>138</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>139</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I31" t="s">
         <v>101</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>122</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>142</v>
       </c>
       <c r="B32" t="s">
         <v>143</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D32">
         <v>1400</v>
       </c>
-      <c r="D32">
-        <v>1415</v>
-      </c>
       <c r="E32" t="s">
+        <v>348</v>
+      </c>
+      <c r="F32" t="s">
         <v>144</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>145</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I32" t="s">
         <v>101</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>146</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>148</v>
       </c>
       <c r="B33" t="s">
         <v>149</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>330</v>
+      </c>
+      <c r="D33">
         <v>1400</v>
       </c>
-      <c r="D33">
-        <v>1416</v>
-      </c>
       <c r="E33" t="s">
+        <v>349</v>
+      </c>
+      <c r="F33" t="s">
         <v>150</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I33" t="s">
         <v>101</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>146</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
       <c r="B34" t="s">
         <v>153</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>330</v>
+      </c>
+      <c r="D34">
         <v>1400</v>
       </c>
-      <c r="D34">
-        <v>1416</v>
-      </c>
       <c r="E34" t="s">
+        <v>349</v>
+      </c>
+      <c r="F34" t="s">
         <v>154</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>155</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I34" t="s">
         <v>101</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>146</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>156</v>
       </c>
       <c r="B35" t="s">
         <v>157</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35">
         <v>1400</v>
       </c>
-      <c r="D35">
-        <v>1416</v>
-      </c>
       <c r="E35" t="s">
+        <v>349</v>
+      </c>
+      <c r="F35" t="s">
         <v>158</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I35" t="s">
         <v>101</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>146</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>160</v>
       </c>
       <c r="B36" t="s">
         <v>161</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36">
         <v>1400</v>
       </c>
-      <c r="D36">
-        <v>1417</v>
-      </c>
       <c r="E36" t="s">
+        <v>350</v>
+      </c>
+      <c r="F36" t="s">
         <v>162</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>163</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I36" t="s">
         <v>101</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>164</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>166</v>
       </c>
       <c r="B37" t="s">
         <v>167</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>330</v>
+      </c>
+      <c r="D37">
         <v>1400</v>
       </c>
-      <c r="D37">
-        <v>1417</v>
-      </c>
       <c r="E37" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37" t="s">
         <v>168</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I37" t="s">
         <v>101</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>164</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>170</v>
       </c>
       <c r="B38" t="s">
         <v>171</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>330</v>
+      </c>
+      <c r="D38">
         <v>1400</v>
       </c>
-      <c r="D38">
-        <v>1417</v>
-      </c>
       <c r="E38" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" t="s">
         <v>172</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>173</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I38" t="s">
         <v>101</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>174</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>176</v>
       </c>
       <c r="B39" t="s">
         <v>177</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39">
         <v>1400</v>
       </c>
-      <c r="D39">
-        <v>1418</v>
-      </c>
       <c r="E39" t="s">
+        <v>351</v>
+      </c>
+      <c r="F39" t="s">
         <v>178</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I39" t="s">
         <v>101</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>174</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>180</v>
       </c>
       <c r="B40" t="s">
         <v>181</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40">
         <v>1400</v>
       </c>
-      <c r="D40">
-        <v>1418</v>
-      </c>
       <c r="E40" t="s">
+        <v>351</v>
+      </c>
+      <c r="F40" t="s">
         <v>178</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>179</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I40" t="s">
         <v>101</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>174</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>182</v>
       </c>
       <c r="B41" t="s">
         <v>183</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>330</v>
+      </c>
+      <c r="D41">
         <v>1400</v>
       </c>
-      <c r="D41">
-        <v>1418</v>
-      </c>
       <c r="E41" t="s">
+        <v>351</v>
+      </c>
+      <c r="F41" t="s">
         <v>184</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I41" t="s">
         <v>101</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>174</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>186</v>
       </c>
       <c r="B42" t="s">
         <v>187</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42">
         <v>1500</v>
       </c>
-      <c r="D42">
-        <v>1511</v>
-      </c>
       <c r="E42" t="s">
+        <v>352</v>
+      </c>
+      <c r="F42" t="s">
         <v>188</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>189</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I42" t="s">
         <v>191</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>192</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>194</v>
       </c>
       <c r="B43" t="s">
         <v>195</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>331</v>
+      </c>
+      <c r="D43">
         <v>1500</v>
       </c>
-      <c r="D43">
-        <v>1511</v>
-      </c>
       <c r="E43" t="s">
+        <v>352</v>
+      </c>
+      <c r="F43" t="s">
         <v>196</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>197</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I43" t="s">
         <v>191</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>192</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" t="s">
+        <v>331</v>
+      </c>
+      <c r="D44" s="7">
         <v>1500</v>
       </c>
-      <c r="D44" s="7">
-        <v>1511</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" t="s">
+        <v>352</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="J44" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="K44" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>202</v>
       </c>
       <c r="B45" t="s">
         <v>203</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>332</v>
+      </c>
+      <c r="D45">
         <v>1600</v>
       </c>
-      <c r="D45">
-        <v>1611</v>
-      </c>
       <c r="E45" t="s">
+        <v>353</v>
+      </c>
+      <c r="F45" t="s">
         <v>204</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>205</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I45" t="s">
         <v>207</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>208</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>210</v>
       </c>
       <c r="B46" t="s">
         <v>211</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>332</v>
+      </c>
+      <c r="D46">
         <v>1600</v>
       </c>
-      <c r="D46">
-        <v>1611</v>
-      </c>
       <c r="E46" t="s">
+        <v>353</v>
+      </c>
+      <c r="F46" t="s">
         <v>204</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>205</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I46" t="s">
         <v>207</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>208</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>212</v>
       </c>
       <c r="B47" t="s">
         <v>213</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>332</v>
+      </c>
+      <c r="D47">
         <v>1600</v>
       </c>
-      <c r="D47">
-        <v>1611</v>
-      </c>
       <c r="E47" t="s">
+        <v>353</v>
+      </c>
+      <c r="F47" t="s">
         <v>214</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>215</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="H47" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I47" t="s">
         <v>207</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>208</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>216</v>
       </c>
       <c r="B48" t="s">
         <v>217</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>332</v>
+      </c>
+      <c r="D48">
         <v>1600</v>
       </c>
-      <c r="D48">
-        <v>1612</v>
-      </c>
       <c r="E48" t="s">
+        <v>354</v>
+      </c>
+      <c r="F48" t="s">
         <v>214</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>215</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I48" t="s">
         <v>207</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>208</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>218</v>
       </c>
       <c r="B49" t="s">
         <v>219</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>332</v>
+      </c>
+      <c r="D49">
         <v>1600</v>
       </c>
-      <c r="D49">
-        <v>1612</v>
-      </c>
       <c r="E49" t="s">
+        <v>354</v>
+      </c>
+      <c r="F49" t="s">
         <v>220</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>221</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I49" t="s">
         <v>207</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>208</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>222</v>
       </c>
       <c r="B50" t="s">
         <v>223</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50">
         <v>1600</v>
       </c>
-      <c r="D50">
-        <v>1612</v>
-      </c>
       <c r="E50" t="s">
+        <v>354</v>
+      </c>
+      <c r="F50" t="s">
         <v>224</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>225</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="H50" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I50" t="s">
         <v>207</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>208</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>226</v>
       </c>
       <c r="B51" t="s">
         <v>227</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>332</v>
+      </c>
+      <c r="D51">
         <v>1600</v>
       </c>
-      <c r="D51">
-        <v>1613</v>
-      </c>
       <c r="E51" t="s">
+        <v>355</v>
+      </c>
+      <c r="F51" t="s">
         <v>228</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>229</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="H51" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I51" t="s">
         <v>207</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>230</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>232</v>
       </c>
       <c r="B52" t="s">
         <v>233</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52">
         <v>1600</v>
       </c>
-      <c r="D52">
-        <v>1613</v>
-      </c>
       <c r="E52" t="s">
+        <v>355</v>
+      </c>
+      <c r="F52" t="s">
         <v>234</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>235</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="H52" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I52" t="s">
         <v>207</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>230</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>236</v>
       </c>
       <c r="B53" t="s">
         <v>237</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53">
         <v>1700</v>
       </c>
-      <c r="D53">
-        <v>1711</v>
-      </c>
       <c r="E53" t="s">
+        <v>356</v>
+      </c>
+      <c r="F53" t="s">
         <v>238</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>239</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="H53" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I53" t="s">
         <v>241</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>242</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>244</v>
       </c>
       <c r="B54" t="s">
         <v>245</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>333</v>
+      </c>
+      <c r="D54">
         <v>1700</v>
       </c>
-      <c r="D54">
-        <v>1711</v>
-      </c>
       <c r="E54" t="s">
+        <v>356</v>
+      </c>
+      <c r="F54" t="s">
         <v>246</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>247</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I54" t="s">
         <v>241</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>248</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>250</v>
       </c>
       <c r="B55" t="s">
         <v>251</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>334</v>
+      </c>
+      <c r="D55">
         <v>1800</v>
       </c>
-      <c r="D55">
-        <v>1811</v>
-      </c>
       <c r="E55" t="s">
+        <v>357</v>
+      </c>
+      <c r="F55" t="s">
         <v>252</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>253</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="H55" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I55" t="s">
         <v>255</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>256</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>258</v>
       </c>
       <c r="B56" t="s">
         <v>259</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="s">
+        <v>334</v>
+      </c>
+      <c r="D56">
         <v>1800</v>
       </c>
-      <c r="D56">
-        <v>1811</v>
-      </c>
       <c r="E56" t="s">
+        <v>357</v>
+      </c>
+      <c r="F56" t="s">
         <v>252</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>253</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I56" t="s">
         <v>255</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>256</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>260</v>
       </c>
       <c r="B57" t="s">
         <v>261</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="s">
+        <v>334</v>
+      </c>
+      <c r="D57">
         <v>1800</v>
       </c>
-      <c r="D57">
-        <v>1811</v>
-      </c>
       <c r="E57" t="s">
+        <v>357</v>
+      </c>
+      <c r="F57" t="s">
         <v>262</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>263</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="H57" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I57" t="s">
         <v>255</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>264</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>266</v>
       </c>
       <c r="B58" t="s">
         <v>267</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="s">
+        <v>334</v>
+      </c>
+      <c r="D58">
         <v>1800</v>
       </c>
-      <c r="D58">
-        <v>1811</v>
-      </c>
       <c r="E58" t="s">
+        <v>357</v>
+      </c>
+      <c r="F58" t="s">
         <v>268</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>269</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="H58" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I58" t="s">
         <v>255</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>270</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>272</v>
       </c>
       <c r="B59" t="s">
         <v>273</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="s">
+        <v>334</v>
+      </c>
+      <c r="D59">
         <v>1800</v>
       </c>
-      <c r="D59">
-        <v>1812</v>
-      </c>
       <c r="E59" t="s">
+        <v>358</v>
+      </c>
+      <c r="F59" t="s">
         <v>274</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>275</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="H59" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I59" t="s">
         <v>255</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>270</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>276</v>
       </c>
       <c r="B60" t="s">
         <v>277</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="s">
+        <v>334</v>
+      </c>
+      <c r="D60">
         <v>1800</v>
       </c>
-      <c r="D60">
-        <v>1812</v>
-      </c>
       <c r="E60" t="s">
+        <v>358</v>
+      </c>
+      <c r="F60" t="s">
         <v>278</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>279</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="H60" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I60" t="s">
         <v>255</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>280</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>282</v>
       </c>
       <c r="B61" t="s">
         <v>283</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="s">
+        <v>334</v>
+      </c>
+      <c r="D61">
         <v>1800</v>
       </c>
-      <c r="D61">
-        <v>1812</v>
-      </c>
       <c r="E61" t="s">
+        <v>358</v>
+      </c>
+      <c r="F61" t="s">
         <v>284</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>285</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="H61" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I61" t="s">
         <v>255</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>286</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>288</v>
       </c>
       <c r="B62" t="s">
         <v>289</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="s">
+        <v>334</v>
+      </c>
+      <c r="D62">
         <v>1800</v>
       </c>
-      <c r="D62">
-        <v>1812</v>
-      </c>
       <c r="E62" t="s">
+        <v>358</v>
+      </c>
+      <c r="F62" t="s">
         <v>290</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>291</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="H62" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I62" t="s">
         <v>255</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>286</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>292</v>
       </c>
       <c r="B63" t="s">
         <v>293</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="s">
+        <v>335</v>
+      </c>
+      <c r="D63">
         <v>1900</v>
       </c>
-      <c r="D63">
-        <v>1911</v>
-      </c>
       <c r="E63" t="s">
+        <v>359</v>
+      </c>
+      <c r="F63" t="s">
         <v>294</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>295</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="H63" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I63" t="s">
         <v>297</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>298</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>300</v>
       </c>
       <c r="B64" t="s">
         <v>301</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D64">
         <v>1900</v>
       </c>
-      <c r="D64">
-        <v>1911</v>
-      </c>
       <c r="E64" t="s">
+        <v>359</v>
+      </c>
+      <c r="F64" t="s">
         <v>302</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>303</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="H64" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I64" t="s">
         <v>297</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>304</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12010101</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="s">
+        <v>336</v>
+      </c>
+      <c r="D65">
         <v>2000</v>
       </c>
-      <c r="D65">
-        <v>2011</v>
-      </c>
-      <c r="E65">
+      <c r="E65" t="s">
+        <v>360</v>
+      </c>
+      <c r="F65">
         <v>120101</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="G65" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="H65">
+      <c r="H65" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I65">
         <v>12</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="J65" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>1201</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12010201</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D66">
         <v>2000</v>
       </c>
-      <c r="D66">
-        <v>2011</v>
-      </c>
-      <c r="E66">
+      <c r="E66" t="s">
+        <v>360</v>
+      </c>
+      <c r="F66">
         <v>120102</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="G66" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="H66">
+      <c r="H66" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I66">
         <v>12</v>
       </c>
-      <c r="I66" s="10" t="s">
+      <c r="J66" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>1201</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G65:H66">
+  <conditionalFormatting sqref="H65:I66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!=ROW()</formula>
     </cfRule>
@@ -5022,8 +5354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF930B9D-2916-4F29-BF12-44511992FCAD}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
